--- a/doc/log/201708044216李博文.xlsx
+++ b/doc/log/201708044216李博文.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>主要在看书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学习书上的spring mvc部分，并且尝试将web部分整合到自己的实体上 </t>
   </si>
 </sst>
 </file>
@@ -108,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -143,9 +146,108 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,44 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -211,67 +275,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -288,13 +291,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,163 +447,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,6 +503,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,30 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -558,21 +576,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -581,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,130 +599,130 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,10 +1058,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="2"/>
@@ -1292,6 +1295,14 @@
         <v>28</v>
       </c>
     </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3">
+        <v>43603</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="600"/>

--- a/doc/log/201708044216李博文.xlsx
+++ b/doc/log/201708044216李博文.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>日期</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">学习书上的spring mvc部分，并且尝试将web部分整合到自己的实体上 </t>
+  </si>
+  <si>
+    <t>了解了java测试的框架以及slf4j等测试库</t>
   </si>
 </sst>
 </file>
@@ -112,8 +115,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -139,28 +142,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -169,6 +150,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -177,6 +165,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -185,21 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -209,45 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,6 +241,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -275,6 +263,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -285,187 +288,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +479,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,8 +523,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -514,21 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,17 +579,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -584,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,10 +1061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="2"/>
@@ -1303,6 +1306,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3">
+        <v>43605</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="600"/>

--- a/doc/log/201708044216李博文.xlsx
+++ b/doc/log/201708044216李博文.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>日期</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>学习在VUE项目中使用axios实现前后端的数据交互，主要途径是看网上的博客</t>
+  </si>
+  <si>
+    <t>将前端页面进行完善，开始进行自己关键词提取实体的建立</t>
   </si>
 </sst>
 </file>
@@ -129,9 +132,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -150,9 +153,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,60 +192,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,16 +266,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,23 +276,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,14 +294,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -303,31 +306,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,151 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,21 +497,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,8 +512,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,26 +529,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +562,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -602,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,133 +617,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,10 +1079,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="2"/>
@@ -1369,6 +1372,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="3">
+        <v>43631</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="portrait"/>

--- a/doc/log/201708044216李博文.xlsx
+++ b/doc/log/201708044216李博文.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>日期</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>将前端页面进行完善，开始进行自己关键词提取实体的建立</t>
+  </si>
+  <si>
+    <t>将前端输入框部分改善，提交自己的关键词提取的dao service web 层</t>
   </si>
 </sst>
 </file>
@@ -153,6 +156,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -161,6 +209,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -170,14 +271,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,106 +294,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,97 +309,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,85 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,30 +508,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,6 +542,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -577,26 +600,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -605,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,133 +620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,10 +1082,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="2"/>
@@ -1380,6 +1383,14 @@
         <v>36</v>
       </c>
     </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="3">
+        <v>43633</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="portrait"/>

--- a/doc/log/201708044216李博文.xlsx
+++ b/doc/log/201708044216李博文.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>日期</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>将前端输入框部分改善，提交自己的关键词提取的dao service web 层</t>
+  </si>
+  <si>
+    <t>调用其他家的LP中的方法来进行比较</t>
   </si>
 </sst>
 </file>
@@ -135,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -157,14 +160,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,128 +302,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -309,187 +312,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,15 +503,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,32 +517,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +547,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -600,6 +579,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -608,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,16 +623,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,115 +641,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,10 +1085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="2"/>
@@ -1391,6 +1394,14 @@
         <v>37</v>
       </c>
     </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="3">
+        <v>43634</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="portrait"/>

--- a/doc/log/201708044216李博文.xlsx
+++ b/doc/log/201708044216李博文.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>日期</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>调用其他家的LP中的方法来进行比较</t>
+  </si>
+  <si>
+    <t>在vue前端部分加上表格以及增删改查等功能</t>
   </si>
 </sst>
 </file>
@@ -167,6 +170,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -175,24 +232,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,102 +277,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -318,181 +321,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,65 +506,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -590,6 +534,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -603,6 +562,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -611,145 +614,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,10 +1088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" outlineLevelCol="2"/>
@@ -1402,6 +1405,14 @@
         <v>38</v>
       </c>
     </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="3">
+        <v>43636</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="8" orientation="portrait"/>
